--- a/Code/Results/Cases/Case_3_132/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_132/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.52424166505073</v>
+        <v>25.8370741681734</v>
       </c>
       <c r="C2">
-        <v>17.63983671740752</v>
+        <v>12.27253946530717</v>
       </c>
       <c r="D2">
-        <v>2.78051488310965</v>
+        <v>4.870455300791582</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>38.48548292185706</v>
+        <v>49.443679360903</v>
       </c>
       <c r="G2">
-        <v>2.10702723859103</v>
+        <v>3.749477471493676</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.11232158557548</v>
+        <v>34.23915024873828</v>
       </c>
       <c r="J2">
-        <v>5.541097380888614</v>
+        <v>9.628627763892753</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.41458597834926</v>
+        <v>12.93162625198395</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.29882642050226</v>
+        <v>20.64861635271204</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.90863376389208</v>
+        <v>25.4971301462666</v>
       </c>
       <c r="C3">
-        <v>16.36924655235213</v>
+        <v>11.85683366034749</v>
       </c>
       <c r="D3">
-        <v>2.692473694916709</v>
+        <v>4.852725322498434</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.3210584907176</v>
+        <v>49.3925844483686</v>
       </c>
       <c r="G3">
-        <v>2.118412811780891</v>
+        <v>3.753552955756449</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>23.75530269777208</v>
+        <v>34.28777489731461</v>
       </c>
       <c r="J3">
-        <v>5.588058889694954</v>
+        <v>9.646033925087442</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.209841160766493</v>
+        <v>12.93218478430718</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.58257566065685</v>
+        <v>20.72356420005293</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.88228369698594</v>
+        <v>25.29303564807751</v>
       </c>
       <c r="C4">
-        <v>15.55138869946686</v>
+        <v>11.59801586145939</v>
       </c>
       <c r="D4">
-        <v>2.638461768098431</v>
+        <v>4.841518948194675</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>36.63087927982328</v>
+        <v>49.3740028033859</v>
       </c>
       <c r="G4">
-        <v>2.125562696344997</v>
+        <v>3.756185053831625</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>23.55899732901718</v>
+        <v>34.32537359873</v>
       </c>
       <c r="J4">
-        <v>5.617790843038048</v>
+        <v>9.657299965328464</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.087018364306434</v>
+        <v>12.93469308349417</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.75946115171853</v>
+        <v>20.77160148614177</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>23.45565336245344</v>
+        <v>25.2111300004462</v>
       </c>
       <c r="C5">
-        <v>15.20848893079704</v>
+        <v>11.4918326921414</v>
       </c>
       <c r="D5">
-        <v>2.616432986961135</v>
+        <v>4.836871265855961</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.35591828574339</v>
+        <v>49.36964487037883</v>
       </c>
       <c r="G5">
-        <v>2.128519123792723</v>
+        <v>3.757290403936914</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>23.4845409019638</v>
+        <v>34.34263519341332</v>
       </c>
       <c r="J5">
-        <v>5.630138814947491</v>
+        <v>9.662036916769917</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.037723796061151</v>
+        <v>12.93626032220281</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.83226475513321</v>
+        <v>20.79168635846224</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>23.38431466678568</v>
+        <v>25.19760886541337</v>
       </c>
       <c r="C6">
-        <v>15.15096638582524</v>
+        <v>11.47416369934189</v>
       </c>
       <c r="D6">
-        <v>2.61277318854887</v>
+        <v>4.836094615172012</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.31064316496634</v>
+        <v>49.36911525832382</v>
       </c>
       <c r="G6">
-        <v>2.129012698174632</v>
+        <v>3.757475928124977</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>23.47250551384557</v>
+        <v>34.34561840615994</v>
       </c>
       <c r="J6">
-        <v>5.63220337337623</v>
+        <v>9.662832312357844</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.029585074229603</v>
+        <v>12.93655349618917</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.84439876742586</v>
+        <v>20.79505224277045</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>23.87656355155502</v>
+        <v>25.29192579023733</v>
       </c>
       <c r="C7">
-        <v>15.54680333041875</v>
+        <v>11.59658646880484</v>
       </c>
       <c r="D7">
-        <v>2.638164792538976</v>
+        <v>4.841456596501977</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>36.62714549585188</v>
+        <v>49.37393102142946</v>
       </c>
       <c r="G7">
-        <v>2.125602390971363</v>
+        <v>3.756199828206149</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>23.55797104835303</v>
+        <v>34.32559855052714</v>
       </c>
       <c r="J7">
-        <v>5.617956424836745</v>
+        <v>9.657363257965546</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.086350456068979</v>
+        <v>12.93471201216859</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.76044001939093</v>
+        <v>20.77187029362409</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.97443625304857</v>
+        <v>25.71896048556318</v>
       </c>
       <c r="C8">
-        <v>17.20947732208289</v>
+        <v>12.13005262603364</v>
       </c>
       <c r="D8">
-        <v>2.750129753587621</v>
+        <v>4.864408135288499</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>38.07887888569874</v>
+        <v>49.42340657310096</v>
       </c>
       <c r="G8">
-        <v>2.110921711698607</v>
+        <v>3.750855848144825</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.9843360924571</v>
+        <v>34.254304799062</v>
       </c>
       <c r="J8">
-        <v>5.557107371586675</v>
+        <v>9.634509598826945</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.343406917291224</v>
+        <v>12.93136982248498</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.39614275489761</v>
+        <v>20.67404029035823</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.80916656865044</v>
+        <v>26.58865376771442</v>
       </c>
       <c r="C9">
-        <v>20.17786949549918</v>
+        <v>13.14040227071592</v>
       </c>
       <c r="D9">
-        <v>2.971592425769217</v>
+        <v>4.906899830496777</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>41.12077646657072</v>
+        <v>49.62190462748784</v>
       </c>
       <c r="G9">
-        <v>2.083256618596114</v>
+        <v>3.741399955217056</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.01194865326408</v>
+        <v>34.17623580972862</v>
       </c>
       <c r="J9">
-        <v>5.444596106929829</v>
+        <v>9.594263576881042</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.869314635714431</v>
+        <v>12.94196460329554</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.70037696722328</v>
+        <v>20.49814151315572</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.53556146310547</v>
+        <v>27.24122444125764</v>
       </c>
       <c r="C10">
-        <v>22.19218857078809</v>
+        <v>13.85199047889752</v>
       </c>
       <c r="D10">
-        <v>3.137928674680762</v>
+        <v>4.93661856046781</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.4753935361155</v>
+        <v>49.82943119190393</v>
       </c>
       <c r="G10">
-        <v>2.063400090008322</v>
+        <v>3.735068704765715</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.89735283108859</v>
+        <v>34.15689441039251</v>
       </c>
       <c r="J10">
-        <v>5.365622865887787</v>
+        <v>9.567451552806101</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.267918510212159</v>
+        <v>12.96015003839637</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.19681751309943</v>
+        <v>20.37852315227792</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.77808227810929</v>
+        <v>27.53976218173822</v>
       </c>
       <c r="C11">
-        <v>23.07542078816989</v>
+        <v>14.16745205571886</v>
       </c>
       <c r="D11">
-        <v>3.215045807025501</v>
+        <v>4.949820037639284</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>44.57388799518572</v>
+        <v>49.93714358021076</v>
       </c>
       <c r="G11">
-        <v>2.054413205346611</v>
+        <v>3.732320493543569</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>26.33161113818279</v>
+        <v>34.15641825372266</v>
       </c>
       <c r="J11">
-        <v>5.330382553366341</v>
+        <v>9.555846446193007</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.451831921809553</v>
+        <v>12.97066615654802</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.96850101411155</v>
+        <v>20.32617061144292</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.24213003325346</v>
+        <v>27.65294623672998</v>
       </c>
       <c r="C12">
-        <v>23.40541170864181</v>
+        <v>14.28561031749214</v>
       </c>
       <c r="D12">
-        <v>3.244521708236095</v>
+        <v>4.954773955586777</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>44.99400146704758</v>
+        <v>49.9798326224605</v>
       </c>
       <c r="G12">
-        <v>2.051011386318879</v>
+        <v>3.731298653145051</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>26.50086629056852</v>
+        <v>34.15743900378531</v>
       </c>
       <c r="J12">
-        <v>5.317125963698352</v>
+        <v>9.551536524148529</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.521853439421808</v>
+        <v>12.97496922201407</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.88207353584504</v>
+        <v>20.30664097456665</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.14247156757705</v>
+        <v>27.62856573673742</v>
       </c>
       <c r="C13">
-        <v>23.33453604244558</v>
+        <v>14.26022233624373</v>
       </c>
       <c r="D13">
-        <v>3.238160248545797</v>
+        <v>4.953709042940595</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>44.90333425368274</v>
+        <v>49.97055447321711</v>
       </c>
       <c r="G13">
-        <v>2.051744062101169</v>
+        <v>3.731517888421077</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>26.46419533387751</v>
+        <v>34.15716568852991</v>
       </c>
       <c r="J13">
-        <v>5.319977263227544</v>
+        <v>9.552460983509116</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.506756044038129</v>
+        <v>12.97402824093429</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.90068714579417</v>
+        <v>20.3108339279496</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.81638756045891</v>
+        <v>27.54907181717289</v>
       </c>
       <c r="C14">
-        <v>23.10265713077924</v>
+        <v>14.17719967552578</v>
       </c>
       <c r="D14">
-        <v>3.217464922124606</v>
+        <v>4.950228502400373</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>44.6083665644676</v>
+        <v>49.94061762402787</v>
       </c>
       <c r="G14">
-        <v>2.054133342033567</v>
+        <v>3.732236049075175</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>26.34543770408078</v>
+        <v>34.15647813829333</v>
       </c>
       <c r="J14">
-        <v>5.329290222164111</v>
+        <v>9.555490171610293</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.457584993344552</v>
+        <v>12.97101375313749</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.96139041294189</v>
+        <v>20.32455798976041</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.61581878883106</v>
+        <v>27.5003938386936</v>
       </c>
       <c r="C15">
-        <v>22.96005171632391</v>
+        <v>14.12617339369292</v>
       </c>
       <c r="D15">
-        <v>3.204826126391182</v>
+        <v>4.948090699735174</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.42823677534965</v>
+        <v>49.92252753775794</v>
       </c>
       <c r="G15">
-        <v>2.055596847774066</v>
+        <v>3.732678394151789</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>26.27333071200132</v>
+        <v>34.15621352303305</v>
       </c>
       <c r="J15">
-        <v>5.335005833026152</v>
+        <v>9.55735665212555</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.427515838152425</v>
+        <v>12.96920901888982</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.99857457362085</v>
+        <v>20.3330027664472</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.45343795456829</v>
+        <v>27.22173888350734</v>
       </c>
       <c r="C16">
-        <v>22.13382517568009</v>
+        <v>13.8311983272134</v>
       </c>
       <c r="D16">
-        <v>3.132923382748646</v>
+        <v>4.935749461674981</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.40417020411626</v>
+        <v>49.82265867333064</v>
       </c>
       <c r="G16">
-        <v>2.06398789229824</v>
+        <v>3.735250950821063</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.86963012128273</v>
+        <v>34.15709338089557</v>
       </c>
       <c r="J16">
-        <v>5.367938826137862</v>
+        <v>9.568221846498183</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.255951589641974</v>
+        <v>12.95950778354902</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.21174720746996</v>
+        <v>20.38198589198734</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.72851320459056</v>
+        <v>27.05114639473814</v>
       </c>
       <c r="C17">
-        <v>21.61867983397492</v>
+        <v>13.64804340750651</v>
       </c>
       <c r="D17">
-        <v>3.089227830805438</v>
+        <v>4.92809748669421</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.78306308290571</v>
+        <v>49.76479240552693</v>
       </c>
       <c r="G17">
-        <v>2.069143745391216</v>
+        <v>3.736862829566694</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.63022926191287</v>
+        <v>34.15976799965915</v>
       </c>
       <c r="J17">
-        <v>5.388310555502302</v>
+        <v>9.575038568292769</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.151365239736288</v>
+        <v>12.9541298081605</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.34266145500819</v>
+        <v>20.41256266435227</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.30711576918357</v>
+        <v>26.95319054912997</v>
       </c>
       <c r="C18">
-        <v>21.31924769354864</v>
+        <v>13.5419276165711</v>
       </c>
       <c r="D18">
-        <v>3.064227360738991</v>
+        <v>4.923666338116624</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.42837740783003</v>
+        <v>49.73276277016472</v>
       </c>
       <c r="G18">
-        <v>2.072113935262217</v>
+        <v>3.737802362415086</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.4954771448799</v>
+        <v>34.16208949577123</v>
       </c>
       <c r="J18">
-        <v>5.400092989654963</v>
+        <v>9.579015096143927</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.091452393689277</v>
+        <v>12.95124782507091</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.4180358892447</v>
+        <v>20.43034382830232</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.17061739072718</v>
+        <v>26.92005593003465</v>
       </c>
       <c r="C19">
-        <v>21.21731864432058</v>
+        <v>13.50587011387212</v>
       </c>
       <c r="D19">
-        <v>3.055783494377123</v>
+        <v>4.922160870967883</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>42.30872172874066</v>
+        <v>49.72213372673033</v>
       </c>
       <c r="G19">
-        <v>2.073120544297717</v>
+        <v>3.738122609400932</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.45035002221929</v>
+        <v>34.1630098735132</v>
       </c>
       <c r="J19">
-        <v>5.404093808373671</v>
+        <v>9.580371064712081</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.071208596672916</v>
+        <v>12.95030837399059</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.44357172023754</v>
+        <v>20.43639762537651</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.80614031745185</v>
+        <v>27.0692900214975</v>
       </c>
       <c r="C20">
-        <v>21.67384034076186</v>
+        <v>13.66762111934352</v>
       </c>
       <c r="D20">
-        <v>3.093865191365166</v>
+        <v>4.928915147071829</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.84891501115482</v>
+        <v>49.77082271984699</v>
       </c>
       <c r="G20">
-        <v>2.068594447826451</v>
+        <v>3.736689957481218</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.65540714516202</v>
+        <v>34.15940219777548</v>
       </c>
       <c r="J20">
-        <v>5.386135278592966</v>
+        <v>9.574307151874104</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.162473539351707</v>
+        <v>12.95468044763317</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.32871808869959</v>
+        <v>20.40928762491847</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.91233932486629</v>
+        <v>27.57241830751227</v>
       </c>
       <c r="C21">
-        <v>23.170884405278</v>
+        <v>14.20162157988593</v>
       </c>
       <c r="D21">
-        <v>3.223535656527627</v>
+        <v>4.951252044179109</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44.69489135007218</v>
+        <v>49.94935933401229</v>
       </c>
       <c r="G21">
-        <v>2.053431562476607</v>
+        <v>3.732024597323209</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>26.3801867113274</v>
+        <v>34.15664746125025</v>
       </c>
       <c r="J21">
-        <v>5.326552475770058</v>
+        <v>9.554598130800024</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.47201737285164</v>
+        <v>12.97189048895962</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.94356019174379</v>
+        <v>20.32051890170766</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.25133628113771</v>
+        <v>27.90197644489286</v>
       </c>
       <c r="C22">
-        <v>24.12339845614889</v>
+        <v>14.54299910140734</v>
       </c>
       <c r="D22">
-        <v>3.309913635820543</v>
+        <v>4.965587295489589</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>45.92562564422627</v>
+        <v>50.07711419446791</v>
       </c>
       <c r="G22">
-        <v>2.043526438979849</v>
+        <v>3.729085317105833</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>26.88207080922817</v>
+        <v>34.16184926211404</v>
       </c>
       <c r="J22">
-        <v>5.288119882082588</v>
+        <v>9.542210531804157</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.67653421432763</v>
+        <v>12.98500737069257</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.69197872544538</v>
+        <v>20.26422301710499</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.54001290098588</v>
+        <v>27.72605267000593</v>
       </c>
       <c r="C23">
-        <v>23.61728683809676</v>
+        <v>14.36153152903922</v>
       </c>
       <c r="D23">
-        <v>3.263638710197092</v>
+        <v>4.957960222314188</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>45.26644527702681</v>
+        <v>50.00792098839337</v>
       </c>
       <c r="G23">
-        <v>2.048814498896222</v>
+        <v>3.730644059028668</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>26.61152304874033</v>
+        <v>34.15843102667399</v>
       </c>
       <c r="J23">
-        <v>5.308589286353073</v>
+        <v>9.548777020576281</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.567172222008606</v>
+        <v>12.97783625984381</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.8262664008141</v>
+        <v>20.29411231933364</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.77105953732588</v>
+        <v>27.06108690575204</v>
       </c>
       <c r="C24">
-        <v>21.64891247669753</v>
+        <v>13.65877257357498</v>
       </c>
       <c r="D24">
-        <v>3.091768269502392</v>
+        <v>4.928545582295191</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.81913590198281</v>
+        <v>49.76809255629277</v>
       </c>
       <c r="G24">
-        <v>2.068842766110998</v>
+        <v>3.736768072941288</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.64401526642364</v>
+        <v>34.15956513571209</v>
       </c>
       <c r="J24">
-        <v>5.387118501061539</v>
+        <v>9.574637646093853</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.157450806920666</v>
+        <v>12.95443084964622</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.33502153590967</v>
+        <v>20.41076764042217</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.80223424293555</v>
+        <v>26.35054871023435</v>
       </c>
       <c r="C25">
-        <v>19.40501661900057</v>
+        <v>12.87188290227794</v>
       </c>
       <c r="D25">
-        <v>2.911242819677582</v>
+        <v>4.895670555125698</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.2770598273403</v>
+        <v>49.55734900826845</v>
       </c>
       <c r="G25">
-        <v>2.090641323430745</v>
+        <v>3.743849270564549</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.71206022761478</v>
+        <v>34.19070439166227</v>
       </c>
       <c r="J25">
-        <v>5.474349630526299</v>
+        <v>9.604664981599749</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.724841696409284</v>
+        <v>12.93726715132497</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.88697693917988</v>
+        <v>20.54403075498496</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_132/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_132/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.8370741681734</v>
+        <v>26.52424166505075</v>
       </c>
       <c r="C2">
-        <v>12.27253946530717</v>
+        <v>17.6398367174075</v>
       </c>
       <c r="D2">
-        <v>4.870455300791582</v>
+        <v>2.780514883109521</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>49.443679360903</v>
+        <v>38.48548292185706</v>
       </c>
       <c r="G2">
-        <v>3.749477471493676</v>
+        <v>2.107027238590899</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>34.23915024873828</v>
+        <v>24.11232158557551</v>
       </c>
       <c r="J2">
-        <v>9.628627763892753</v>
+        <v>5.541097380888551</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.93162625198395</v>
+        <v>8.414585978349161</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.64861635271204</v>
+        <v>13.29882642050229</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.4971301462666</v>
+        <v>24.90863376389208</v>
       </c>
       <c r="C3">
-        <v>11.85683366034749</v>
+        <v>16.36924655235206</v>
       </c>
       <c r="D3">
-        <v>4.852725322498434</v>
+        <v>2.692473694916636</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>49.3925844483686</v>
+        <v>37.32105849071768</v>
       </c>
       <c r="G3">
-        <v>3.753552955756449</v>
+        <v>2.118412811780753</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>34.28777489731461</v>
+        <v>23.75530269777214</v>
       </c>
       <c r="J3">
-        <v>9.646033925087442</v>
+        <v>5.588058889694956</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.93218478430718</v>
+        <v>8.209841160766503</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.72356420005293</v>
+        <v>13.58257566065688</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.29303564807751</v>
+        <v>23.88228369698593</v>
       </c>
       <c r="C4">
-        <v>11.59801586145939</v>
+        <v>15.55138869946688</v>
       </c>
       <c r="D4">
-        <v>4.841518948194675</v>
+        <v>2.638461768098367</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>49.3740028033859</v>
+        <v>36.63087927982316</v>
       </c>
       <c r="G4">
-        <v>3.756185053831625</v>
+        <v>2.125562696344862</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>34.32537359873</v>
+        <v>23.55899732901708</v>
       </c>
       <c r="J4">
-        <v>9.657299965328464</v>
+        <v>5.61779084303801</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.93469308349417</v>
+        <v>8.087018364306408</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>20.77160148614177</v>
+        <v>13.75946115171849</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.2111300004462</v>
+        <v>23.45565336245345</v>
       </c>
       <c r="C5">
-        <v>11.4918326921414</v>
+        <v>15.20848893079712</v>
       </c>
       <c r="D5">
-        <v>4.836871265855961</v>
+        <v>2.61643298696127</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>49.36964487037883</v>
+        <v>36.35591828574316</v>
       </c>
       <c r="G5">
-        <v>3.757290403936914</v>
+        <v>2.12851912379259</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>34.34263519341332</v>
+        <v>23.48454090196362</v>
       </c>
       <c r="J5">
-        <v>9.662036916769917</v>
+        <v>5.630138814947391</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.93626032220281</v>
+        <v>8.037723796061046</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>20.79168635846224</v>
+        <v>13.83226475513305</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.19760886541337</v>
+        <v>23.3843146667857</v>
       </c>
       <c r="C6">
-        <v>11.47416369934189</v>
+        <v>15.15096638582528</v>
       </c>
       <c r="D6">
-        <v>4.836094615172012</v>
+        <v>2.612773188548801</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>49.36911525832382</v>
+        <v>36.31064316496623</v>
       </c>
       <c r="G6">
-        <v>3.757475928124977</v>
+        <v>2.129012698174502</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>34.34561840615994</v>
+        <v>23.47250551384546</v>
       </c>
       <c r="J6">
-        <v>9.662832312357844</v>
+        <v>5.632203373376163</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.93655349618917</v>
+        <v>8.029585074229546</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>20.79505224277045</v>
+        <v>13.84439876742583</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.29192579023733</v>
+        <v>23.87656355155504</v>
       </c>
       <c r="C7">
-        <v>11.59658646880484</v>
+        <v>15.54680333041872</v>
       </c>
       <c r="D7">
-        <v>4.841456596501977</v>
+        <v>2.638164792538781</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>49.37393102142946</v>
+        <v>36.62714549585188</v>
       </c>
       <c r="G7">
-        <v>3.756199828206149</v>
+        <v>2.125602390971359</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>34.32559855052714</v>
+        <v>23.55797104835304</v>
       </c>
       <c r="J7">
-        <v>9.657363257965546</v>
+        <v>5.617956424836714</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.93471201216859</v>
+        <v>8.086350456068981</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>20.77187029362409</v>
+        <v>13.76044001939093</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.71896048556318</v>
+        <v>25.97443625304857</v>
       </c>
       <c r="C8">
-        <v>12.13005262603364</v>
+        <v>17.20947732208284</v>
       </c>
       <c r="D8">
-        <v>4.864408135288499</v>
+        <v>2.750129753587483</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>49.42340657310096</v>
+        <v>38.07887888569885</v>
       </c>
       <c r="G8">
-        <v>3.750855848144825</v>
+        <v>2.11092171169874</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>34.254304799062</v>
+        <v>23.98433609245719</v>
       </c>
       <c r="J8">
-        <v>9.634509598826945</v>
+        <v>5.557107371586836</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.93136982248498</v>
+        <v>8.343406917291301</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.67404029035823</v>
+        <v>13.39614275489764</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.58865376771442</v>
+        <v>29.80916656865049</v>
       </c>
       <c r="C9">
-        <v>13.14040227071592</v>
+        <v>20.17786949549921</v>
       </c>
       <c r="D9">
-        <v>4.906899830496777</v>
+        <v>2.971592425769287</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>49.62190462748784</v>
+        <v>41.12077646657063</v>
       </c>
       <c r="G9">
-        <v>3.741399955217056</v>
+        <v>2.083256618596248</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>34.17623580972862</v>
+        <v>25.01194865326398</v>
       </c>
       <c r="J9">
-        <v>9.594263576881042</v>
+        <v>5.444596106929831</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.94196460329554</v>
+        <v>8.869314635714378</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.49814151315572</v>
+        <v>12.7003769672232</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.24122444125764</v>
+        <v>32.53556146310551</v>
       </c>
       <c r="C10">
-        <v>13.85199047889752</v>
+        <v>22.19218857078793</v>
       </c>
       <c r="D10">
-        <v>4.93661856046781</v>
+        <v>3.137928674680564</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>49.82943119190393</v>
+        <v>43.4753935361155</v>
       </c>
       <c r="G10">
-        <v>3.735068704765715</v>
+        <v>2.063400090008187</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>34.15689441039251</v>
+        <v>25.89735283108861</v>
       </c>
       <c r="J10">
-        <v>9.567451552806101</v>
+        <v>5.365622865887789</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.96015003839637</v>
+        <v>9.267918510212136</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.37852315227792</v>
+        <v>12.19681751309943</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.53976218173822</v>
+        <v>33.77808227810935</v>
       </c>
       <c r="C11">
-        <v>14.16745205571886</v>
+        <v>23.07542078816976</v>
       </c>
       <c r="D11">
-        <v>4.949820037639284</v>
+        <v>3.215045807025448</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>49.93714358021076</v>
+        <v>44.57388799518583</v>
       </c>
       <c r="G11">
-        <v>3.732320493543569</v>
+        <v>2.054413205346343</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>34.15641825372266</v>
+        <v>26.33161113818291</v>
       </c>
       <c r="J11">
-        <v>9.555846446193007</v>
+        <v>5.330382553366443</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.97066615654802</v>
+        <v>9.451831921809587</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.32617061144292</v>
+        <v>11.96850101411166</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.65294623672998</v>
+        <v>34.24213003325353</v>
       </c>
       <c r="C12">
-        <v>14.28561031749214</v>
+        <v>23.40541170864188</v>
       </c>
       <c r="D12">
-        <v>4.954773955586777</v>
+        <v>3.24452170823576</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>49.9798326224605</v>
+        <v>44.99400146704763</v>
       </c>
       <c r="G12">
-        <v>3.731298653145051</v>
+        <v>2.051011386318617</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>34.15743900378531</v>
+        <v>26.50086629056858</v>
       </c>
       <c r="J12">
-        <v>9.551536524148529</v>
+        <v>5.317125963698544</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.97496922201407</v>
+        <v>9.521853439421813</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.30664097456665</v>
+        <v>11.88207353584505</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.62856573673742</v>
+        <v>34.14247156757709</v>
       </c>
       <c r="C13">
-        <v>14.26022233624373</v>
+        <v>23.33453604244566</v>
       </c>
       <c r="D13">
-        <v>4.953709042940595</v>
+        <v>3.238160248545938</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>49.97055447321711</v>
+        <v>44.90333425368269</v>
       </c>
       <c r="G13">
-        <v>3.731517888421077</v>
+        <v>2.051744062101034</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>34.15716568852991</v>
+        <v>26.46419533387746</v>
       </c>
       <c r="J13">
-        <v>9.552460983509116</v>
+        <v>5.319977263227544</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.97402824093429</v>
+        <v>9.506756044038125</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.3108339279496</v>
+        <v>11.9006871457941</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.54907181717289</v>
+        <v>33.81638756045893</v>
       </c>
       <c r="C14">
-        <v>14.17719967552578</v>
+        <v>23.10265713077954</v>
       </c>
       <c r="D14">
-        <v>4.950228502400373</v>
+        <v>3.217464922124684</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>49.94061762402787</v>
+        <v>44.60836656446758</v>
       </c>
       <c r="G14">
-        <v>3.732236049075175</v>
+        <v>2.054133342033816</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>34.15647813829333</v>
+        <v>26.3454377040808</v>
       </c>
       <c r="J14">
-        <v>9.555490171610293</v>
+        <v>5.329290222164115</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.97101375313749</v>
+        <v>9.457584993344497</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.32455798976041</v>
+        <v>11.96139041294187</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.5003938386936</v>
+        <v>33.61581878883106</v>
       </c>
       <c r="C15">
-        <v>14.12617339369292</v>
+        <v>22.96005171632393</v>
       </c>
       <c r="D15">
-        <v>4.948090699735174</v>
+        <v>3.204826126391384</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>49.92252753775794</v>
+        <v>44.42823677534968</v>
       </c>
       <c r="G15">
-        <v>3.732678394151789</v>
+        <v>2.055596847774199</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>34.15621352303305</v>
+        <v>26.27333071200133</v>
       </c>
       <c r="J15">
-        <v>9.55735665212555</v>
+        <v>5.335005833026118</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.96920901888982</v>
+        <v>9.427515838152448</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.3330027664472</v>
+        <v>11.99857457362088</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.22173888350734</v>
+        <v>32.45343795456821</v>
       </c>
       <c r="C16">
-        <v>13.8311983272134</v>
+        <v>22.13382517567997</v>
       </c>
       <c r="D16">
-        <v>4.935749461674981</v>
+        <v>3.132923382748717</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>49.82265867333064</v>
+        <v>43.40417020411644</v>
       </c>
       <c r="G16">
-        <v>3.735250950821063</v>
+        <v>2.063987892298235</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>34.15709338089557</v>
+        <v>25.86963012128288</v>
       </c>
       <c r="J16">
-        <v>9.568221846498183</v>
+        <v>5.367938826137926</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.95950778354902</v>
+        <v>9.255951589642009</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.38198589198734</v>
+        <v>12.21174720747006</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.05114639473814</v>
+        <v>31.72851320459055</v>
       </c>
       <c r="C17">
-        <v>13.64804340750651</v>
+        <v>21.61867983397484</v>
       </c>
       <c r="D17">
-        <v>4.92809748669421</v>
+        <v>3.08922783080531</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>49.76479240552693</v>
+        <v>42.78306308290574</v>
       </c>
       <c r="G17">
-        <v>3.736862829566694</v>
+        <v>2.06914374539122</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>34.15976799965915</v>
+        <v>25.63022926191288</v>
       </c>
       <c r="J17">
-        <v>9.575038568292769</v>
+        <v>5.388310555502207</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.9541298081605</v>
+        <v>9.151365239736279</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.41256266435227</v>
+        <v>12.34266145500819</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.95319054912997</v>
+        <v>31.30711576918349</v>
       </c>
       <c r="C18">
-        <v>13.5419276165711</v>
+        <v>21.31924769354865</v>
       </c>
       <c r="D18">
-        <v>4.923666338116624</v>
+        <v>3.064227360738727</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>49.73276277016472</v>
+        <v>42.42837740783011</v>
       </c>
       <c r="G18">
-        <v>3.737802362415086</v>
+        <v>2.072113935261957</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>34.16208949577123</v>
+        <v>25.49547714488006</v>
       </c>
       <c r="J18">
-        <v>9.579015096143927</v>
+        <v>5.400092989655127</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.95124782507091</v>
+        <v>9.09145239368927</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.43034382830232</v>
+        <v>12.41803588924482</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.92005593003465</v>
+        <v>31.17061739072721</v>
       </c>
       <c r="C19">
-        <v>13.50587011387212</v>
+        <v>21.21731864432057</v>
       </c>
       <c r="D19">
-        <v>4.922160870967883</v>
+        <v>3.055783494376989</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>49.72213372673033</v>
+        <v>42.30872172874066</v>
       </c>
       <c r="G19">
-        <v>3.738122609400932</v>
+        <v>2.073120544297717</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>34.1630098735132</v>
+        <v>25.4503500222193</v>
       </c>
       <c r="J19">
-        <v>9.580371064712081</v>
+        <v>5.404093808373673</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.95030837399059</v>
+        <v>9.071208596672884</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.43639762537651</v>
+        <v>12.44357172023754</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.0692900214975</v>
+        <v>31.80614031745185</v>
       </c>
       <c r="C20">
-        <v>13.66762111934352</v>
+        <v>21.67384034076183</v>
       </c>
       <c r="D20">
-        <v>4.928915147071829</v>
+        <v>3.093865191364966</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49.77082271984699</v>
+        <v>42.84891501115482</v>
       </c>
       <c r="G20">
-        <v>3.736689957481218</v>
+        <v>2.068594447826589</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>34.15940219777548</v>
+        <v>25.65540714516204</v>
       </c>
       <c r="J20">
-        <v>9.574307151874104</v>
+        <v>5.386135278593029</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.95468044763317</v>
+        <v>9.162473539351684</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.40928762491847</v>
+        <v>12.32871808869958</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.57241830751227</v>
+        <v>33.91233932486634</v>
       </c>
       <c r="C21">
-        <v>14.20162157988593</v>
+        <v>23.17088440527813</v>
       </c>
       <c r="D21">
-        <v>4.951252044179109</v>
+        <v>3.2235356565275</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>49.94935933401229</v>
+        <v>44.69489135007218</v>
       </c>
       <c r="G21">
-        <v>3.732024597323209</v>
+        <v>2.053431562476733</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>34.15664746125025</v>
+        <v>26.38018671132744</v>
       </c>
       <c r="J21">
-        <v>9.554598130800024</v>
+        <v>5.326552475770058</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.97189048895962</v>
+        <v>9.472017372851603</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.32051890170766</v>
+        <v>11.94356019174383</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.90197644489286</v>
+        <v>35.25133628113772</v>
       </c>
       <c r="C22">
-        <v>14.54299910140734</v>
+        <v>24.12339845614905</v>
       </c>
       <c r="D22">
-        <v>4.965587295489589</v>
+        <v>3.309913635820546</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.07711419446791</v>
+        <v>45.92562564422636</v>
       </c>
       <c r="G22">
-        <v>3.729085317105833</v>
+        <v>2.043526438979849</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>34.16184926211404</v>
+        <v>26.88207080922826</v>
       </c>
       <c r="J22">
-        <v>9.542210531804157</v>
+        <v>5.288119882082654</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.98500737069257</v>
+        <v>9.676534214327633</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.26422301710499</v>
+        <v>11.69197872544545</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.72605267000593</v>
+        <v>34.54001290098593</v>
       </c>
       <c r="C23">
-        <v>14.36153152903922</v>
+        <v>23.61728683809692</v>
       </c>
       <c r="D23">
-        <v>4.957960222314188</v>
+        <v>3.263638710196956</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.00792098839337</v>
+        <v>45.26644527702693</v>
       </c>
       <c r="G23">
-        <v>3.730644059028668</v>
+        <v>2.048814498895957</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>34.15843102667399</v>
+        <v>26.61152304874039</v>
       </c>
       <c r="J23">
-        <v>9.548777020576281</v>
+        <v>5.3085892863531</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.97783625984381</v>
+        <v>9.567172222008594</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.29411231933364</v>
+        <v>11.82626640081411</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.06108690575204</v>
+        <v>31.77105953732593</v>
       </c>
       <c r="C24">
-        <v>13.65877257357498</v>
+        <v>21.64891247669751</v>
       </c>
       <c r="D24">
-        <v>4.928545582295191</v>
+        <v>3.091768269502192</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>49.76809255629277</v>
+        <v>42.81913590198287</v>
       </c>
       <c r="G24">
-        <v>3.736768072941288</v>
+        <v>2.068842766110743</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>34.15956513571209</v>
+        <v>25.64401526642371</v>
       </c>
       <c r="J24">
-        <v>9.574637646093853</v>
+        <v>5.387118501061574</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.95443084964622</v>
+        <v>9.157450806920641</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.41076764042217</v>
+        <v>12.33502153590968</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.35054871023435</v>
+        <v>28.80223424293559</v>
       </c>
       <c r="C25">
-        <v>12.87188290227794</v>
+        <v>19.40501661900065</v>
       </c>
       <c r="D25">
-        <v>4.895670555125698</v>
+        <v>2.911242819677451</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>49.55734900826845</v>
+        <v>40.27705982734019</v>
       </c>
       <c r="G25">
-        <v>3.743849270564549</v>
+        <v>2.090641323430608</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>34.19070439166227</v>
+        <v>24.71206022761466</v>
       </c>
       <c r="J25">
-        <v>9.604664981599749</v>
+        <v>5.474349630526333</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.93726715132497</v>
+        <v>8.724841696409246</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.54403075498496</v>
+        <v>12.88697693917982</v>
       </c>
       <c r="O25">
         <v>0</v>
